--- a/data/review_final_sphero_edu.xlsx
+++ b/data/review_final_sphero_edu.xlsx
@@ -841,7 +841,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -20757,7 +20757,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -23127,7 +23127,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
@@ -28167,7 +28167,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
